--- a/CheckList.xlsx
+++ b/CheckList.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>V1.0</t>
   </si>
@@ -73,34 +73,55 @@
     <t>Поиск</t>
   </si>
   <si>
-    <t>Осуществить поиск с пустым полем ввода</t>
-  </si>
-  <si>
-    <t>Ввести значение капсом</t>
-  </si>
-  <si>
-    <t>Ввести значение на кириллице</t>
-  </si>
-  <si>
-    <t>Ввести значение на латинице</t>
-  </si>
-  <si>
-    <t>Ввести цифры в поле поиска</t>
-  </si>
-  <si>
-    <t>Ввести положительные цифры</t>
-  </si>
-  <si>
-    <t>ввести отрицательные числа</t>
-  </si>
-  <si>
-    <t>ввести дробные числа</t>
-  </si>
-  <si>
-    <t>ввести целые числа</t>
-  </si>
-  <si>
-    <t>ввести спец символы например [%, #]</t>
+    <t>проверить, что поиск по букве выдаёт сообщение об отсутствии результатов</t>
+  </si>
+  <si>
+    <t>проверить, что поиск по части слова выдаёт сообщение об отсутствии результатов</t>
+  </si>
+  <si>
+    <t>проверить, что поиск по тексту содержащему пробелы выдаёт результат</t>
+  </si>
+  <si>
+    <t>проверить, что если после запроса поставить пробелы, то выдаёт результат</t>
+  </si>
+  <si>
+    <t>проверить, что если до запроса поставить пробелы, то выдаёт результат</t>
+  </si>
+  <si>
+    <t>при поиске с пустым полем ввода сообщение об отсутствии результатов</t>
+  </si>
+  <si>
+    <t>Ввести значение капсом - выдаёт результат</t>
+  </si>
+  <si>
+    <t>Ввести валидное значение на кириллице - выдаёт результат</t>
+  </si>
+  <si>
+    <t>Ввести валидное значение на латинице - выдаёт резульатт</t>
+  </si>
+  <si>
+    <t>Ввести цифры в поле поиска - выдаёт результат</t>
+  </si>
+  <si>
+    <t>Ввести положительные цифры - выдаёт результат</t>
+  </si>
+  <si>
+    <t>ввести отрицательные числа - выдаёт результат</t>
+  </si>
+  <si>
+    <t>ввести дробные числа - выдаёт результат</t>
+  </si>
+  <si>
+    <t>ввести целые числа - выдаёт результат</t>
+  </si>
+  <si>
+    <t>ввести спец символы например [%, #] - сообщение об отсутствиии результатов</t>
+  </si>
+  <si>
+    <t>проверить, что буква е и ё считаются за одни символ</t>
+  </si>
+  <si>
+    <t>проверить, что запрос с невалидными данными выдаёт сообщение об отсутствии результатов</t>
   </si>
 </sst>
 </file>
@@ -196,7 +217,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -308,11 +329,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -361,6 +393,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -698,13 +733,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomRight" activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -809,12 +844,12 @@
       <c r="L4" s="20"/>
       <c r="M4" s="20"/>
     </row>
-    <row r="5" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
         <v>1</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C5" s="17"/>
       <c r="D5" s="13"/>
@@ -833,7 +868,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C6" s="17"/>
       <c r="D6" s="13"/>
@@ -852,7 +887,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C7" s="17"/>
       <c r="D7" s="13"/>
@@ -871,7 +906,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C8" s="17"/>
       <c r="D8" s="13"/>
@@ -890,7 +925,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C9" s="17"/>
       <c r="D9" s="16"/>
@@ -909,7 +944,7 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C10" s="17"/>
       <c r="D10" s="16"/>
@@ -928,7 +963,7 @@
         <v>5.2</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C11" s="17"/>
       <c r="D11" s="16"/>
@@ -947,7 +982,7 @@
         <v>5.3</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C12" s="17"/>
       <c r="D12" s="16"/>
@@ -966,7 +1001,7 @@
         <v>5.4</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C13" s="17"/>
       <c r="D13" s="16"/>
@@ -980,12 +1015,12 @@
       <c r="L13" s="16"/>
       <c r="M13" s="16"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="14">
         <v>6</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C14" s="17"/>
       <c r="D14" s="16"/>
@@ -999,13 +1034,149 @@
       <c r="L14" s="16"/>
       <c r="M14" s="16"/>
     </row>
+    <row r="15" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="14">
+        <v>7</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="17"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="16"/>
+    </row>
+    <row r="16" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="14">
+        <v>8</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="17"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="16"/>
+    </row>
+    <row r="17" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="14">
+        <v>9</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="17"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="16"/>
+    </row>
+    <row r="18" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="14">
+        <v>10</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="17"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="16"/>
+    </row>
+    <row r="19" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="14">
+        <v>11</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="17"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="16"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="14">
+        <v>12</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="17"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="16"/>
+      <c r="M20" s="16"/>
+    </row>
+    <row r="21" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="14">
+        <v>13</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="17"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="16"/>
+      <c r="M21" s="16"/>
+    </row>
+    <row r="22" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="21"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="C2:M2"/>
     <mergeCell ref="C4:M4"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C65525:C65532 C983048:C983051 C917512:C917515 C851976:C851979 C786440:C786443 C720904:C720907 C655368:C655371 C589832:C589835 C524296:C524299 C458760:C458763 C393224:C393227 C327688:C327691 C262152:C262155 C196616:C196619 C131080:C131083 C65544:C65547 C983044:C983046 C917508:C917510 C851972:C851974 C786436:C786438 C720900:C720902 C655364:C655366 C589828:C589830 C524292:C524294 C458756:C458758 C393220:C393222 C327684:C327686 C262148:C262150 C196612:C196614 C131076:C131078 C65540:C65542 C983038:C983042 C917502:C917506 C851966:C851970 C786430:C786434 C720894:C720898 C655358:C655362 C589822:C589826 C524286:C524290 C458750:C458754 C393214:C393218 C327678:C327682 C262142:C262146 C196606:C196610 C131070:C131074 C65534:C65538 C983023:C983027 C917487:C917491 C851951:C851955 C786415:C786419 C720879:C720883 C655343:C655347 C589807:C589811 C524271:C524275 C458735:C458739 C393199:C393203 C327663:C327667 C262127:C262131 C196591:C196595 C131055:C131059 C65519:C65523 C983021 C917485 C851949 C786413 C720877 C655341 C589805 C524269 C458733 C393197 C327661 C262125 C196589 C131053 C65517 C983029:C983036 C917493:C917500 C851957:C851964 C786421:C786428 C720885:C720892 C655349:C655356 C589813:C589820 C524277:C524284 C458741:C458748 C393205:C393212 C327669:C327676 C262133:C262140 C196597:C196604 C131061:C131068">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C65532:C65539 C983055:C983058 C917519:C917522 C851983:C851986 C786447:C786450 C720911:C720914 C655375:C655378 C589839:C589842 C524303:C524306 C458767:C458770 C393231:C393234 C327695:C327698 C262159:C262162 C196623:C196626 C131087:C131090 C65551:C65554 C983051:C983053 C917515:C917517 C851979:C851981 C786443:C786445 C720907:C720909 C655371:C655373 C589835:C589837 C524299:C524301 C458763:C458765 C393227:C393229 C327691:C327693 C262155:C262157 C196619:C196621 C131083:C131085 C65547:C65549 C983045:C983049 C917509:C917513 C851973:C851977 C786437:C786441 C720901:C720905 C655365:C655369 C589829:C589833 C524293:C524297 C458757:C458761 C393221:C393225 C327685:C327689 C262149:C262153 C196613:C196617 C131077:C131081 C65541:C65545 C983030:C983034 C917494:C917498 C851958:C851962 C786422:C786426 C720886:C720890 C655350:C655354 C589814:C589818 C524278:C524282 C458742:C458746 C393206:C393210 C327670:C327674 C262134:C262138 C196598:C196602 C131062:C131066 C65526:C65530 C983028 C917492 C851956 C786420 C720884 C655348 C589812 C524276 C458740 C393204 C327668 C262132 C196596 C131060 C65524 C983036:C983043 C917500:C917507 C851964:C851971 C786428:C786435 C720892:C720899 C655356:C655363 C589820:C589827 C524284:C524291 C458748:C458755 C393212:C393219 C327676:C327683 C262140:C262147 C196604:C196611 C131068:C131075">
       <formula1>Status</formula1>
     </dataValidation>
   </dataValidations>
